--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4148443.431944208</v>
+        <v>4153382.694793241</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546828.8312090106</v>
+        <v>563498.7970128858</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>134.2574504375188</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>40.32232414915249</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>95.9454048773934</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>382.9162189223172</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>344.9192609869589</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481164</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>134.1186324348726</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229328</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.7268375758688</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051996</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>96.84207451769392</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,13 +1612,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722633</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274081</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>136.1203916976717</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.31984007417594</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>127.6176159584063</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,7 +2772,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>169.7438101404427</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896904</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498028</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>64.34190763938388</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151922</v>
+        <v>203.8435192151915</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151914</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>176.4034131981755</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>139.1537278750042</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151914</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>36.56241635926693</v>
       </c>
       <c r="D43" t="n">
-        <v>126.5513692271543</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>88.56658743892525</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1249.712458167646</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="C2" t="n">
-        <v>1249.712458167646</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="D2" t="n">
-        <v>891.4467595608955</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="E2" t="n">
-        <v>505.6585069626513</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>94.67260217304374</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X2" t="n">
-        <v>1639.851790143458</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y2" t="n">
-        <v>1249.712458167646</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="3">
@@ -4391,13 +4391,13 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>722.2873163082934</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="C5" t="n">
-        <v>722.2873163082934</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="D5" t="n">
-        <v>722.2873163082934</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="E5" t="n">
-        <v>722.2873163082934</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>594.1930173427669</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>1485.892406545185</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X5" t="n">
-        <v>1112.426648284105</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y5" t="n">
-        <v>722.2873163082934</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="6">
@@ -4658,7 +4658,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1529.286147953401</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C8" t="n">
-        <v>1160.323631012989</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>802.0579324062389</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>416.2696798079947</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036448</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548717</v>
+        <v>2506.647035452885</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548717</v>
+        <v>2506.647035452885</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548717</v>
+        <v>2506.647035452885</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548717</v>
+        <v>2506.647035452885</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278603</v>
+        <v>2153.87838018277</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.885988017523</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="Y8" t="n">
-        <v>1915.885988017523</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.063382757265</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414848</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435192</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2627.754532504894</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409106</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130037</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>348.746022900668</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5023,49 +5023,49 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>155.299447258669</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704857</v>
+        <v>280.6570073165065</v>
       </c>
       <c r="L12" t="n">
-        <v>618.8589595388348</v>
+        <v>894.5540770733951</v>
       </c>
       <c r="M12" t="n">
-        <v>1318.370476901345</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N12" t="n">
-        <v>2122.782055165496</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.921157035281</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.921157035281</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>933.2366688293938</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>643.8194987924333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>415.8299478944159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>195.0373687508858</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515098</v>
@@ -5302,7 +5302,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
@@ -5311,19 +5311,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171747</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M15" t="n">
-        <v>1031.449480746876</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N15" t="n">
-        <v>1375.970136384494</v>
+        <v>1824.002963247254</v>
       </c>
       <c r="O15" t="n">
-        <v>2045.433897687154</v>
+        <v>2072.756377331216</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>496.6650364395585</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>496.6650364395585</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>496.6650364395585</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>496.6650364395585</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>496.6650364395585</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799365</v>
@@ -5472,16 +5472,16 @@
         <v>786.0822064765191</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765191</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W16" t="n">
-        <v>496.6650364395585</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X16" t="n">
-        <v>496.6650364395585</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>496.6650364395585</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5536,25 +5536,25 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5600,13 +5600,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="L18" t="n">
-        <v>711.1141612171746</v>
+        <v>381.3300194168664</v>
       </c>
       <c r="M18" t="n">
-        <v>1479.482307609636</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N18" t="n">
-        <v>2283.893885873787</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O18" t="n">
         <v>2623.573505376138</v>
@@ -5731,31 +5731,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822468</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5779,19 +5779,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5831,16 +5831,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.4439546775383</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.334223522051</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>1288.23129327894</v>
       </c>
       <c r="M21" t="n">
-        <v>1288.32563221405</v>
+        <v>1288.23129327894</v>
       </c>
       <c r="N21" t="n">
         <v>2092.642871543091</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028587</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352016</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150552</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170379</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.0324822735078</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,10 +5974,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5989,13 +5989,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6007,31 +6007,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F24" t="n">
         <v>358.2718071316295</v>
@@ -6077,7 +6077,7 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1890.372576454149</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N24" t="n">
         <v>2623.573505376138</v>
@@ -6104,7 +6104,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W24" t="n">
         <v>1571.258395043133</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>545.1765965867975</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>376.2404136588906</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>226.1237742465549</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028587</v>
@@ -6153,16 +6153,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150545</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>726.8250614170372</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>726.8250614170372</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6223,55 +6223,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,19 +6302,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047984</v>
       </c>
       <c r="L27" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1890.372576454149</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,19 +6539,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>1890.372576454149</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028589</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028589</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028589</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028589</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765191</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706323</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336716</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028589</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028589</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6715,13 +6715,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6767,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6782,13 +6782,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1890.372576454149</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N33" t="n">
         <v>2623.573505376138</v>
@@ -6861,34 +6861,34 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
         <v>869.3083006011506</v>
@@ -6919,31 +6919,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6955,34 +6955,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1890.372576454149</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N36" t="n">
         <v>2623.573505376138</v>
@@ -7052,7 +7052,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,46 +7101,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T37" t="n">
-        <v>1187.921157035281</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>898.7925182488389</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>644.108030042952</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>465.9227641862091</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>465.9227641862091</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,43 +7162,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047986</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M39" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
         <v>2103.272883640391</v>
@@ -7289,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,46 +7338,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514068</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,13 +7493,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1890.372576454149</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N42" t="n">
         <v>2623.573505376138</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>688.7859813545107</v>
+        <v>579.0685056491543</v>
       </c>
       <c r="C43" t="n">
-        <v>519.8497984266038</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
         <v>392.0201325405893</v>
@@ -7572,49 +7572,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>1098.423997082768</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X43" t="n">
-        <v>870.4344461847504</v>
+        <v>981.5095496229242</v>
       </c>
       <c r="Y43" t="n">
-        <v>870.4344461847504</v>
+        <v>760.716970479394</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,7 +7730,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
         <v>1122.004430061687</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
   </sheetData>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>346.3925274229716</v>
+        <v>178.3913131276568</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.98990566424338</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>30.37317676570586</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.51214010776135</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>18.81634668816288</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>82.39383318338528</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338525</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>154.2427457127109</v>
       </c>
     </row>
     <row r="32">
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338511</v>
+        <v>82.39383318338579</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>110.1195851384155</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>130.6844047393609</v>
       </c>
       <c r="D43" t="n">
-        <v>22.06410379105803</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>91.26539274301204</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,7 +26040,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803344</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803342</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710686</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
+        <v>779989.6813710688</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.6813710689</v>
       </c>
-      <c r="D2" t="n">
-        <v>779989.681371069</v>
-      </c>
       <c r="E2" t="n">
+        <v>742955.213501647</v>
+      </c>
+      <c r="F2" t="n">
         <v>742955.2135016472</v>
       </c>
-      <c r="F2" t="n">
-        <v>742955.213501647</v>
-      </c>
       <c r="G2" t="n">
-        <v>742955.2135016475</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="H2" t="n">
         <v>742955.2135016472</v>
       </c>
       <c r="I2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="J2" t="n">
+        <v>742955.213501647</v>
+      </c>
+      <c r="K2" t="n">
+        <v>742955.2135016468</v>
+      </c>
+      <c r="L2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="M2" t="n">
+        <v>742955.213501647</v>
+      </c>
+      <c r="N2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="O2" t="n">
+        <v>742955.213501647</v>
+      </c>
+      <c r="P2" t="n">
         <v>742955.2135016472</v>
-      </c>
-      <c r="J2" t="n">
-        <v>742955.2135016475</v>
-      </c>
-      <c r="K2" t="n">
-        <v>742955.2135016475</v>
-      </c>
-      <c r="L2" t="n">
-        <v>742955.2135016472</v>
-      </c>
-      <c r="M2" t="n">
-        <v>742955.2135016475</v>
-      </c>
-      <c r="N2" t="n">
-        <v>742955.2135016473</v>
-      </c>
-      <c r="O2" t="n">
-        <v>742955.2135016472</v>
-      </c>
-      <c r="P2" t="n">
-        <v>742955.2135016473</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.976671782625058e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758334</v>
+        <v>787.7936905758286</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905757878</v>
+        <v>787.7936905758286</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758637</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758636</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
+        <v>787.7936905759236</v>
+      </c>
+      <c r="J4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="K4" t="n">
+        <v>787.7936905759167</v>
+      </c>
+      <c r="L4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
+        <v>787.7936905758696</v>
+      </c>
+      <c r="N4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="K4" t="n">
-        <v>787.7936905757881</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="O4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="P4" t="n">
-        <v>787.7936905758693</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26493,13 +26493,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31896.41508750449</v>
+        <v>-31896.41508750425</v>
       </c>
       <c r="C6" t="n">
+        <v>558071.4641270404</v>
+      </c>
+      <c r="D6" t="n">
         <v>558071.4641270405</v>
       </c>
-      <c r="D6" t="n">
-        <v>558071.4641270402</v>
-      </c>
       <c r="E6" t="n">
-        <v>124045.4661257371</v>
+        <v>124922.5982594862</v>
       </c>
       <c r="F6" t="n">
-        <v>649205.5026026329</v>
+        <v>650082.6347363826</v>
       </c>
       <c r="G6" t="n">
-        <v>649205.5026026333</v>
+        <v>650082.6347363826</v>
       </c>
       <c r="H6" t="n">
-        <v>649205.5026026331</v>
+        <v>650082.6347363826</v>
       </c>
       <c r="I6" t="n">
-        <v>649205.5026026331</v>
+        <v>650082.6347363828</v>
       </c>
       <c r="J6" t="n">
-        <v>472782.2834100403</v>
+        <v>473659.4155437895</v>
       </c>
       <c r="K6" t="n">
-        <v>649205.5026026333</v>
+        <v>650082.6347363822</v>
       </c>
       <c r="L6" t="n">
-        <v>649205.5026026331</v>
+        <v>650082.6347363825</v>
       </c>
       <c r="M6" t="n">
-        <v>514404.4873687961</v>
+        <v>515281.619502545</v>
       </c>
       <c r="N6" t="n">
-        <v>649205.5026026332</v>
+        <v>650082.6347363825</v>
       </c>
       <c r="O6" t="n">
-        <v>649205.5026026331</v>
+        <v>650082.6347363824</v>
       </c>
       <c r="P6" t="n">
-        <v>649205.5026026332</v>
+        <v>650082.6347363826</v>
       </c>
     </row>
   </sheetData>
@@ -26712,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.720839728281323e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26743,10 +26743,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541004</v>
@@ -26758,28 +26758,28 @@
         <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,13 +26795,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26816,7 +26816,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26928,13 +26928,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.720839728281323e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,13 +27165,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.720839728281323e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>247.672919634743</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>373.4618458716425</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>310.930640864318</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>30.86795109847782</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>61.95678475475256</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>40.29708037409893</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060685</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491426</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -29037,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -31378,10 +31378,10 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O6" t="n">
-        <v>73.87984549392672</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554471</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633804</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727385</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473558</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141115</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118892</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396482</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>139.4326257134861</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619157</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078615</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644447</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813581</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302245</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175851</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383806</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>59.41563758725095</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>383.0062604371802</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32086,19 +32086,19 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>101.400719959515</v>
+        <v>301.7970625436786</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32320,7 +32320,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>54.69678998811253</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724847</v>
@@ -32329,7 +32329,7 @@
         <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>91.84465193776663</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32338,7 +32338,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32496,7 +32496,7 @@
         <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
         <v>76.06970478104651</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.652513767927</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622983</v>
@@ -32563,7 +32563,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.4409936277001</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,13 +32779,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -32794,13 +32794,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32815,10 +32815,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32879,10 +32879,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,28 +33016,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>392.6063366508801</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,31 +33113,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,28 +33253,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>392.6063366508801</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33289,10 +33289,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,31 +33350,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041496</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,28 +33490,28 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>392.6063366508801</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33526,10 +33526,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,31 +33587,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647517</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,28 +33727,28 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>392.6063366508801</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33763,10 +33763,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,31 +33824,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,25 +33964,25 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -33991,7 +33991,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -34000,10 +34000,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,31 +34061,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041472</v>
+        <v>424.6341946041496</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,28 +34201,28 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>392.6063366508801</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34237,10 +34237,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,31 +34298,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.490283364748</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,28 +34438,28 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>392.6063366508801</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34474,10 +34474,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35026,10 +35026,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35175,25 +35175,25 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770696</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>323.920986939093</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871396</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873155</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>58.66904626099309</v>
       </c>
       <c r="K12" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>706.5772902651618</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>620.0980502594836</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>285.8890811851219</v>
+        <v>486.2854237692856</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>286.9827555116975</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004662</v>
@@ -35977,7 +35977,7 @@
         <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>343.1107267700517</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>167.9059224416692</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005179</v>
@@ -36211,7 +36211,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>812.4416558879203</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,10 +36445,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N24" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989111007</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N27" t="n">
-        <v>740.6069989111003</v>
+        <v>740.6069989111007</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N30" t="n">
-        <v>740.6069989111003</v>
+        <v>740.6069989111007</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N33" t="n">
-        <v>740.6069989111003</v>
+        <v>740.6069989111007</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N36" t="n">
-        <v>740.6069989111003</v>
+        <v>740.6069989111007</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N39" t="n">
-        <v>215.0508153396383</v>
+        <v>47.04960104432353</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N42" t="n">
-        <v>740.6069989111003</v>
+        <v>740.6069989111007</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>740.6069989111003</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
